--- a/other/Project_TimeLine_2021_11_Mar.xlsx
+++ b/other/Project_TimeLine_2021_11_Mar.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Murphy Tan\Desktop\lms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Murphy Tan\Desktop\aztech-lms\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07F7B61-0D10-4938-847D-0C812D02631A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEE4590-ADB0-475A-B28F-517702F00E28}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{5A8E5395-CCD6-4F57-83A8-81B53FE4AFF6}"/>
   </bookViews>
@@ -520,7 +520,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -861,6 +861,9 @@
       <c r="F14" s="3">
         <v>44267</v>
       </c>
+      <c r="G14" s="3">
+        <v>44260</v>
+      </c>
       <c r="H14" t="s">
         <v>33</v>
       </c>
@@ -887,6 +890,9 @@
       <c r="F15" s="3">
         <v>44272</v>
       </c>
+      <c r="G15" s="3">
+        <v>44264</v>
+      </c>
       <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -903,10 +909,10 @@
         <v>5</v>
       </c>
       <c r="E16" s="3">
-        <v>44273</v>
+        <v>44265</v>
       </c>
       <c r="F16" s="3">
-        <v>44280</v>
+        <v>44271</v>
       </c>
       <c r="I16" s="4"/>
     </row>

--- a/other/Project_TimeLine_2021_11_Mar.xlsx
+++ b/other/Project_TimeLine_2021_11_Mar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Murphy Tan\Desktop\aztech-lms\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEE4590-ADB0-475A-B28F-517702F00E28}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E234096B-DFA8-411E-82FC-5BCBA4FFF290}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{5A8E5395-CCD6-4F57-83A8-81B53FE4AFF6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
   <si>
     <t>S/N</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>Creating functionality for groups</t>
+  </si>
+  <si>
+    <t>Front-end: Data charts</t>
   </si>
 </sst>
 </file>
@@ -517,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4C0DE7D-B314-4018-AC47-8A93F1174983}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -916,42 +919,37 @@
       </c>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
       </c>
       <c r="D17">
-        <v>5</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="I17" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="H18" t="s">
-        <v>19</v>
+      <c r="I18" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -959,17 +957,36 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
       </c>
       <c r="D19">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="H19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20">
+        <v>6</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="H20" t="s">
         <v>27</v>
       </c>
     </row>

--- a/other/Project_TimeLine_2021_11_Mar.xlsx
+++ b/other/Project_TimeLine_2021_11_Mar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Murphy Tan\Desktop\aztech-lms\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E234096B-DFA8-411E-82FC-5BCBA4FFF290}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E5D8FB4-EAD0-4D22-A515-4E064AD86457}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{5A8E5395-CCD6-4F57-83A8-81B53FE4AFF6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
   <si>
     <t>S/N</t>
   </si>
@@ -129,17 +129,13 @@
     <t>Front-end: Photosensor</t>
   </si>
   <si>
-    <t>On leave on 5/3/2021
-Time needed increased slightly as more content was added.</t>
-  </si>
-  <si>
     <t>Front-end: Edit profile</t>
   </si>
   <si>
-    <t>Creating functionality for groups</t>
-  </si>
-  <si>
     <t>Front-end: Data charts</t>
+  </si>
+  <si>
+    <t>Re-estimated start/finish</t>
   </si>
 </sst>
 </file>
@@ -523,7 +519,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -845,7 +841,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -867,12 +863,7 @@
       <c r="G14" s="3">
         <v>44260</v>
       </c>
-      <c r="H14" t="s">
-        <v>33</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -898,39 +889,50 @@
       </c>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E16" s="3">
         <v>44265</v>
       </c>
       <c r="F16" s="3">
-        <v>44271</v>
-      </c>
-      <c r="I16" s="4"/>
+        <v>44267</v>
+      </c>
+      <c r="G16" s="3">
+        <v>44265</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
       </c>
       <c r="D17">
         <v>4</v>
+      </c>
+      <c r="E17" s="3">
+        <v>44266</v>
+      </c>
+      <c r="F17" s="3">
+        <v>44271</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="75" x14ac:dyDescent="0.25">
